--- a/APM files/132336351/132336351 IMPORT RT&RP Custom Label Update.xlsx
+++ b/APM files/132336351/132336351 IMPORT RT&RP Custom Label Update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/132336351/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0291493C-499A-BC4D-86FC-FE2C8B5E83DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB361A9-FBC5-5D41-A5F4-23DADB3B2ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18840" yWindow="7960" windowWidth="30240" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20160" yWindow="8760" windowWidth="30240" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Success" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -487,7 +487,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -553,13 +553,13 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
@@ -571,7 +571,7 @@
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -579,16 +579,25 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
